--- a/Tables/P-values_singleton_updated_cleaned.xlsx
+++ b/Tables/P-values_singleton_updated_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF2A7B-2042-9C47-9B09-35DF88516ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3EE37-479C-D44E-95EA-D723AF15EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27640" windowHeight="16440" xr2:uid="{4B19A33B-149B-EC4E-8A61-247B3ECE97CF}"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -539,7 +538,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
